--- a/db/data/funds_from_pd.xlsx
+++ b/db/data/funds_from_pd.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/mappstack-7.1.22-0/apache2/htdocs/crowdfun/db/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF614E1-37B0-5A42-B5AA-394959F05D10}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45753335-ED15-4446-A178-022C9AF50B98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1940" windowWidth="26840" windowHeight="15560"/>
+    <workbookView xWindow="1580" yWindow="1940" windowWidth="26840" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="funds_from_pd" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -679,7 +679,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1034,16 +1034,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
